--- a/Documentation/기획서/시스템/3. 대화/DataTable_복사본(연습용)/DataTable_Face_복사본.xlsx
+++ b/Documentation/기획서/시스템/3. 대화/DataTable_복사본(연습용)/DataTable_Face_복사본.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGA\The-Scent-of-That-Season\Documentation\기획서\시스템\3. 대화\DataTable_복사본(연습용)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8F2636-6D36-4A8F-B1EF-DBF865E96ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EFBEB0-15F8-4105-9BD9-2E764040EABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{85FF32E9-EF48-42BF-8C84-12198636C879}"/>
+    <workbookView xWindow="14610" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{85FF32E9-EF48-42BF-8C84-12198636C879}"/>
   </bookViews>
   <sheets>
-    <sheet name="지구하" sheetId="1" r:id="rId1"/>
-    <sheet name="한서령" sheetId="2" r:id="rId2"/>
-    <sheet name="유가현" sheetId="3" r:id="rId3"/>
+    <sheet name="Summer" sheetId="3" r:id="rId1"/>
+    <sheet name="Fall" sheetId="1" r:id="rId2"/>
+    <sheet name="Winter" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +37,117 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>NGA</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{86C94883-47A4-4944-A679-339EF667CCC5}">
+      <text/>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{F1A95625-8998-439C-A2B7-96D8C8222169}">
+      <text/>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{EAC86012-6980-4A44-8100-DE8D592A94F5}">
+      <text/>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{FD0F7152-E93A-4081-B6FE-F75AC94F59E9}">
+      <text/>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{5E5B0E66-B138-4FA1-ABAF-B8C6C8744AE8}">
+      <text/>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{7D081CF8-1FB9-4AEF-8D52-9BFD06B21113}">
+      <text/>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{C2B4A0BF-B206-4115-A62D-E079C6B5E061}">
+      <text/>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{4F4FF68D-DF9E-4833-B1A0-38912DE30AFD}">
+      <text/>
+    </comment>
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{23F2297E-3541-4598-AF97-6E08D03AF5E7}">
+      <text/>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{A595C005-5314-4EF0-8CA9-C90A89FCBBDB}">
+      <text/>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{49FBC786-3DA2-4B50-8496-59104E4F3C38}">
+      <text/>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{8E229305-0EA0-46D8-952C-F93D13765189}">
+      <text/>
+    </comment>
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{EF4B0279-042B-4AF3-8C24-9517A2E26507}">
+      <text/>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{5E42A661-5FE9-4B29-A84B-D9FD6BAA78C3}">
+      <text/>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{A3CCA017-9378-41AE-AEF7-3934BF8F605E}">
+      <text/>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{AFF765CE-4204-4E17-8D98-4CE787AF904E}">
+      <text/>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{18A38666-65FB-40A8-994A-20F9524DDE3B}">
+      <text/>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{C0106502-15B3-46B4-B5D9-4793BF62E0C8}">
+      <text/>
+    </comment>
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{B175341E-F5C7-4E31-8614-F6143045D1C0}">
+      <text/>
+    </comment>
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{32B0C361-C56F-4D79-9DD6-A3BF52144FB4}">
+      <text/>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{0B098EE3-B319-45C7-B999-CE6F912FCAAA}">
+      <text/>
+    </comment>
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{B15C6437-46C5-488D-B8A2-856433D40CA8}">
+      <text/>
+    </comment>
+    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{F220F0DB-1E84-4B8C-8F7B-5E2D725097BC}">
+      <text/>
+    </comment>
+    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{307D5AAF-A1D9-4B41-81A9-433F98C6FC1E}">
+      <text/>
+    </comment>
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{D17E479A-67F5-430A-8367-5E47543CE430}">
+      <text/>
+    </comment>
+    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{67F0CE06-DD16-4A1C-8B11-EA65A5BC2FC2}">
+      <text/>
+    </comment>
+    <comment ref="H30" authorId="0" shapeId="0" xr:uid="{40A256CD-D858-4640-B22A-A90F663B5A72}">
+      <text/>
+    </comment>
+    <comment ref="H31" authorId="0" shapeId="0" xr:uid="{38E6C650-0798-4445-89E1-781BDF088E0D}">
+      <text/>
+    </comment>
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{555B6B24-A64B-4EBC-BD22-220314F081E1}">
+      <text/>
+    </comment>
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{980E5DBD-94D6-465C-8662-483AB0FF3B8C}">
+      <text/>
+    </comment>
+    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{B1AD291D-E24A-436A-B9F2-9C04C925AC23}">
+      <text/>
+    </comment>
+    <comment ref="H35" authorId="0" shapeId="0" xr:uid="{B627EE5F-AEC7-42EA-B43F-E6A1153F29D4}">
+      <text/>
+    </comment>
+    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{1A541F07-8B39-47A9-9CF7-21C459FDB3DF}">
+      <text/>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>no</t>
   </si>
@@ -65,13 +174,181 @@
   </si>
   <si>
     <t>지구하 기본</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내려간 눈썹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올라간 눈썹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본(대화0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순한 눈썹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화난 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픈 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃는 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,21 +364,62 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -110,8 +428,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -129,6 +468,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,6 +770,1003 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8486AEB-D0DB-4CF3-9D8E-7C246BA5CF6C}">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0676E30-827E-4171-ACFB-81CCBFF4B6EA}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -520,7 +1860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D6AECA-F9C4-4388-8BC1-E8DA4BA9D439}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -612,98 +1952,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8486AEB-D0DB-4CF3-9D8E-7C246BA5CF6C}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documentation/기획서/시스템/3. 대화/DataTable_복사본(연습용)/DataTable_Face_복사본.xlsx
+++ b/Documentation/기획서/시스템/3. 대화/DataTable_복사본(연습용)/DataTable_Face_복사본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGA\The-Scent-of-That-Season\Documentation\기획서\시스템\3. 대화\DataTable_복사본(연습용)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EFBEB0-15F8-4105-9BD9-2E764040EABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756ACBA-B779-4EB7-8615-9E9C2E046580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14610" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{85FF32E9-EF48-42BF-8C84-12198636C879}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85FF32E9-EF48-42BF-8C84-12198636C879}"/>
   </bookViews>
   <sheets>
     <sheet name="Summer" sheetId="3" r:id="rId1"/>
@@ -97,49 +97,97 @@
     <comment ref="H20" authorId="0" shapeId="0" xr:uid="{C0106502-15B3-46B4-B5D9-4793BF62E0C8}">
       <text/>
     </comment>
-    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{B175341E-F5C7-4E31-8614-F6143045D1C0}">
-      <text/>
-    </comment>
-    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{32B0C361-C56F-4D79-9DD6-A3BF52144FB4}">
-      <text/>
-    </comment>
-    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{0B098EE3-B319-45C7-B999-CE6F912FCAAA}">
-      <text/>
-    </comment>
-    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{B15C6437-46C5-488D-B8A2-856433D40CA8}">
-      <text/>
-    </comment>
-    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{F220F0DB-1E84-4B8C-8F7B-5E2D725097BC}">
-      <text/>
-    </comment>
-    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{307D5AAF-A1D9-4B41-81A9-433F98C6FC1E}">
-      <text/>
-    </comment>
-    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{D17E479A-67F5-430A-8367-5E47543CE430}">
-      <text/>
-    </comment>
-    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{67F0CE06-DD16-4A1C-8B11-EA65A5BC2FC2}">
-      <text/>
-    </comment>
-    <comment ref="H30" authorId="0" shapeId="0" xr:uid="{40A256CD-D858-4640-B22A-A90F663B5A72}">
-      <text/>
-    </comment>
-    <comment ref="H31" authorId="0" shapeId="0" xr:uid="{38E6C650-0798-4445-89E1-781BDF088E0D}">
-      <text/>
-    </comment>
-    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{555B6B24-A64B-4EBC-BD22-220314F081E1}">
-      <text/>
-    </comment>
-    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{980E5DBD-94D6-465C-8662-483AB0FF3B8C}">
-      <text/>
-    </comment>
-    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{B1AD291D-E24A-436A-B9F2-9C04C925AC23}">
-      <text/>
-    </comment>
-    <comment ref="H35" authorId="0" shapeId="0" xr:uid="{B627EE5F-AEC7-42EA-B43F-E6A1153F29D4}">
-      <text/>
-    </comment>
-    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{1A541F07-8B39-47A9-9CF7-21C459FDB3DF}">
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{1E415BFF-42A9-4824-89DE-1EABC1C49492}">
+      <text/>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{C02CA693-2D3E-4F2F-ABF5-39AD86C44296}">
+      <text/>
+    </comment>
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{51FC06F7-F6DC-4A79-985E-8D14A3754130}">
+      <text/>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{C7779131-DC42-441A-B24E-FD032856A403}">
+      <text/>
+    </comment>
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{9B711BE1-D155-46E0-8D21-A79BA6CB2F26}">
+      <text/>
+    </comment>
+    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{D67B8C9B-1A0E-4C81-9FE8-5AC2B491462E}">
+      <text/>
+    </comment>
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{32B0C361-C56F-4D79-9DD6-A3BF52144FB4}">
+      <text/>
+    </comment>
+    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{0B098EE3-B319-45C7-B999-CE6F912FCAAA}">
+      <text/>
+    </comment>
+    <comment ref="H30" authorId="0" shapeId="0" xr:uid="{B15C6437-46C5-488D-B8A2-856433D40CA8}">
+      <text/>
+    </comment>
+    <comment ref="H31" authorId="0" shapeId="0" xr:uid="{F220F0DB-1E84-4B8C-8F7B-5E2D725097BC}">
+      <text/>
+    </comment>
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{307D5AAF-A1D9-4B41-81A9-433F98C6FC1E}">
+      <text/>
+    </comment>
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{D17E479A-67F5-430A-8367-5E47543CE430}">
+      <text/>
+    </comment>
+    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{67F0CE06-DD16-4A1C-8B11-EA65A5BC2FC2}">
+      <text/>
+    </comment>
+    <comment ref="H35" authorId="0" shapeId="0" xr:uid="{40A256CD-D858-4640-B22A-A90F663B5A72}">
+      <text/>
+    </comment>
+    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{38E6C650-0798-4445-89E1-781BDF088E0D}">
+      <text/>
+    </comment>
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{555B6B24-A64B-4EBC-BD22-220314F081E1}">
+      <text/>
+    </comment>
+    <comment ref="H38" authorId="0" shapeId="0" xr:uid="{980E5DBD-94D6-465C-8662-483AB0FF3B8C}">
+      <text/>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{B1AD291D-E24A-436A-B9F2-9C04C925AC23}">
+      <text/>
+    </comment>
+    <comment ref="H40" authorId="0" shapeId="0" xr:uid="{B627EE5F-AEC7-42EA-B43F-E6A1153F29D4}">
+      <text/>
+    </comment>
+    <comment ref="H41" authorId="0" shapeId="0" xr:uid="{1A541F07-8B39-47A9-9CF7-21C459FDB3DF}">
+      <text/>
+    </comment>
+    <comment ref="H42" authorId="0" shapeId="0" xr:uid="{FD1105EE-11E8-45AD-9BC3-81FC71DB31A7}">
+      <text/>
+    </comment>
+    <comment ref="H44" authorId="0" shapeId="0" xr:uid="{5D5F6F3B-62E2-4281-AEE3-BA2F35D45209}">
+      <text/>
+    </comment>
+    <comment ref="H45" authorId="0" shapeId="0" xr:uid="{B175341E-F5C7-4E31-8614-F6143045D1C0}">
+      <text/>
+    </comment>
+    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{D17512BC-430B-4F10-915D-8FE1D9C5414C}">
+      <text/>
+    </comment>
+    <comment ref="H47" authorId="0" shapeId="0" xr:uid="{734D9532-A357-4768-8BD0-D64C9541F972}">
+      <text/>
+    </comment>
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{24756995-CF72-40F4-B556-580287D79036}">
+      <text/>
+    </comment>
+    <comment ref="H49" authorId="0" shapeId="0" xr:uid="{7497C702-9793-494D-B42F-8668A8FF8F11}">
+      <text/>
+    </comment>
+    <comment ref="H50" authorId="0" shapeId="0" xr:uid="{E37E1029-4C79-4DB3-8D49-C3A4B8997B94}">
+      <text/>
+    </comment>
+    <comment ref="H52" authorId="0" shapeId="0" xr:uid="{1DC973D0-BA0B-4C6D-A971-585731409311}">
+      <text/>
+    </comment>
+    <comment ref="H53" authorId="0" shapeId="0" xr:uid="{7150B802-6F3D-425D-91EF-57AA3409F2BD}">
+      <text/>
+    </comment>
+    <comment ref="H54" authorId="0" shapeId="0" xr:uid="{DE017498-598B-4C8E-984C-ADD829F70DD0}">
       <text/>
     </comment>
   </commentList>
@@ -147,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>no</t>
   </si>
@@ -336,11 +384,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대화18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웃는 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부라린 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부라린눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픔3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이플 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픔4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픔5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픔6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픔7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이플 눈썹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경멸하는 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부끄럼1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부끄럼2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부끄럼3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,11 +501,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -381,13 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,29 +573,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,10 +607,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -771,48 +906,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8486AEB-D0DB-4CF3-9D8E-7C246BA5CF6C}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="18.125" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -835,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -857,11 +996,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -883,14 +1022,14 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -916,7 +1055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -942,7 +1081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -971,7 +1110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -997,7 +1136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1026,7 +1165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1052,7 +1191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1078,7 +1217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1107,7 +1246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1133,7 +1272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1159,7 +1298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1188,7 +1327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1213,7 +1352,6 @@
       <c r="H16" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -1240,8 +1378,8 @@
       <c r="H17" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -1294,7 +1432,7 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1320,7 +1458,7 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1332,10 +1470,10 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1346,22 +1484,54 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>49</v>
+      <c r="H21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1373,24 +1543,27 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1402,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1428,21 +1601,24 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1453,38 +1629,21 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s">
-        <v>50</v>
+      <c r="H26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -1494,10 +1653,10 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1508,8 +1667,11 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" t="s">
-        <v>18</v>
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1520,10 +1682,10 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1535,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1543,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1560,11 +1722,8 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>25</v>
+      <c r="H30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1572,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1589,8 +1748,11 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>21</v>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1598,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1615,22 +1777,22 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1641,25 +1803,22 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1671,21 +1830,21 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1696,22 +1855,25 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1722,41 +1884,469 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
